--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982987.4136518735</v>
+        <v>978975.6109197767</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518386</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140337</v>
+        <v>6432656.960140341</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>165.2795274109022</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
-        <v>89.39919348868364</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.757534756603207</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9.398076001933696</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1612,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>335.151257870471</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>152.3578295472084</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.6272338358266</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.151359596761915</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1821,10 +1821,10 @@
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>10.62651873975665</v>
+        <v>126.9467586118668</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>56.53018717137984</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>139.8968802801207</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>209.11539164443</v>
+        <v>244.8954475256849</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.7030512222169</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>54.58116097344065</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.21672021895654</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>162.4701646176488</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>151.9248730274651</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989982</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>48.25633934079702</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2611,10 +2611,10 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>321.6445281751043</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2800,13 +2800,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>290.4253098801793</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>180.1723598130757</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.48994447064862</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3006,7 +3006,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3339849899809</v>
+        <v>277.3339849899806</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>200.7969166561272</v>
       </c>
       <c r="U32" t="n">
-        <v>162.5978662894321</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3240,10 +3240,10 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T34" t="n">
-        <v>237.097464026797</v>
+        <v>237.0974640267966</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>180.3739797075315</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>308.9557790942236</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>21.41609356890105</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
@@ -3483,13 +3483,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>157.355302449211</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>236.5771514799034</v>
       </c>
       <c r="H38" t="n">
         <v>274.5392124624013</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>92.98228733108851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>76.1204489983448</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>234.7839822771167</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>35.8692930688363</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>294.4529604691841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>15.75775879579322</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>104.0725258717093</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>304.7600449505568</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.78234170975058</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>45.56331265248899</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>99.87074601305746</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.925708949733</v>
+        <v>1058.12123850826</v>
       </c>
       <c r="C11" t="n">
-        <v>892.0249789630327</v>
+        <v>1058.12123850826</v>
       </c>
       <c r="D11" t="n">
-        <v>468.7323581480329</v>
+        <v>634.8286176932602</v>
       </c>
       <c r="E11" t="n">
-        <v>42.75541829589048</v>
+        <v>634.8286176932602</v>
       </c>
       <c r="F11" t="n">
-        <v>42.75541829589048</v>
+        <v>209.7044358826604</v>
       </c>
       <c r="G11" t="n">
         <v>42.75541829589048</v>
@@ -5038,19 +5038,19 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
@@ -5071,22 +5071,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>1988.840042703315</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U11" t="n">
-        <v>1730.645707781985</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V11" t="n">
-        <v>1730.645707781985</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W11" t="n">
-        <v>1730.645707781985</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.925708949733</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.925708949733</v>
+        <v>1058.12123850826</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283641</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838655</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
-        <v>992.520525718061</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O12" t="n">
-        <v>1220.01238974092</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P12" t="n">
-        <v>1399.453043391742</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.7252833520581</v>
+        <v>764.2060569505591</v>
       </c>
       <c r="C13" t="n">
-        <v>513.7252833520581</v>
+        <v>592.233493829475</v>
       </c>
       <c r="D13" t="n">
-        <v>350.4085104788288</v>
+        <v>428.9167209562457</v>
       </c>
       <c r="E13" t="n">
-        <v>350.4085104788288</v>
+        <v>428.9167209562457</v>
       </c>
       <c r="F13" t="n">
-        <v>178.5467362533892</v>
+        <v>257.0549467308061</v>
       </c>
       <c r="G13" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
         <v>42.75541829589048</v>
@@ -5202,22 +5202,22 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L13" t="n">
-        <v>523.2582343051841</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M13" t="n">
-        <v>1052.356535716829</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N13" t="n">
-        <v>1166.851790858349</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O13" t="n">
-        <v>1647.008137929682</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
@@ -5232,19 +5232,19 @@
         <v>1737.278665192341</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818623</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="V13" t="n">
-        <v>1447.650320756064</v>
+        <v>1455.56719780037</v>
       </c>
       <c r="W13" t="n">
-        <v>1172.797916928577</v>
+        <v>1180.714793972883</v>
       </c>
       <c r="X13" t="n">
-        <v>930.2340203743818</v>
+        <v>1180.714793972883</v>
       </c>
       <c r="Y13" t="n">
-        <v>703.8912520641238</v>
+        <v>954.3720256626248</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.9684841031977</v>
+        <v>1659.293894056919</v>
       </c>
       <c r="C14" t="n">
-        <v>320.0677541164978</v>
+        <v>1232.39316407022</v>
       </c>
       <c r="D14" t="n">
-        <v>320.0677541164978</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E14" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103574</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K14" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848327</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V14" t="n">
-        <v>1983.87411727209</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W14" t="n">
-        <v>1983.87411727209</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X14" t="n">
-        <v>1572.154118439837</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y14" t="n">
-        <v>1166.816848394728</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,13 +5348,13 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745214</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J15" t="n">
         <v>404.465909142654</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>881.4713517589686</v>
+        <v>798.0706932421044</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4987886378846</v>
+        <v>626.0981301210204</v>
       </c>
       <c r="D16" t="n">
-        <v>546.1820157646553</v>
+        <v>626.0981301210204</v>
       </c>
       <c r="E16" t="n">
-        <v>379.9738099175088</v>
+        <v>459.8899242738739</v>
       </c>
       <c r="F16" t="n">
-        <v>208.1120356920692</v>
+        <v>288.0281500484343</v>
       </c>
       <c r="G16" t="n">
-        <v>42.75541829589046</v>
+        <v>122.6715326522556</v>
       </c>
       <c r="H16" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K16" t="n">
-        <v>491.6854607613571</v>
+        <v>343.0420666477858</v>
       </c>
       <c r="L16" t="n">
-        <v>977.5688445445701</v>
+        <v>828.9254504309987</v>
       </c>
       <c r="M16" t="n">
-        <v>1093.544903181524</v>
+        <v>944.9015090679522</v>
       </c>
       <c r="N16" t="n">
-        <v>1208.040158323044</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O16" t="n">
-        <v>1688.196505394377</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S16" t="n">
-        <v>1983.326552563497</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1743.834164657642</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U16" t="n">
-        <v>1743.834164657642</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V16" t="n">
-        <v>1462.12269726567</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="W16" t="n">
-        <v>1462.12269726567</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="X16" t="n">
-        <v>1219.558800711476</v>
+        <v>1214.579430264428</v>
       </c>
       <c r="Y16" t="n">
-        <v>993.2160324012177</v>
+        <v>988.2366619541701</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1329.659566262618</v>
+        <v>1447.154758052628</v>
       </c>
       <c r="C17" t="n">
-        <v>902.7588362759182</v>
+        <v>1020.254028065928</v>
       </c>
       <c r="D17" t="n">
-        <v>479.4662154609184</v>
+        <v>596.9614072509287</v>
       </c>
       <c r="E17" t="n">
-        <v>53.48927560877598</v>
+        <v>170.9844673987863</v>
       </c>
       <c r="F17" t="n">
-        <v>53.48927560877598</v>
+        <v>170.9844673987863</v>
       </c>
       <c r="G17" t="n">
-        <v>53.48927560877598</v>
+        <v>170.9844673987863</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
@@ -5542,25 +5542,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="W17" t="n">
-        <v>1741.379565094871</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="X17" t="n">
-        <v>1329.659566262618</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="Y17" t="n">
-        <v>1329.659566262618</v>
+        <v>1867.003122344158</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C18" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D18" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E18" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F18" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>385.1054302494206</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J18" t="n">
-        <v>621.1314488097169</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K18" t="n">
-        <v>768.9224031779651</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L18" t="n">
-        <v>975.1729928003649</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.003193755866</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N18" t="n">
-        <v>1471.628259390062</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O18" t="n">
-        <v>1699.120123412921</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P18" t="n">
-        <v>1878.560777063743</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q18" t="n">
-        <v>1990.400232554563</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R18" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S18" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T18" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U18" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V18" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W18" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y18" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>676.08652262739</v>
+        <v>993.2160324012186</v>
       </c>
       <c r="C19" t="n">
-        <v>504.1139595063059</v>
+        <v>821.2434692801346</v>
       </c>
       <c r="D19" t="n">
-        <v>504.1139595063059</v>
+        <v>657.9266964069053</v>
       </c>
       <c r="E19" t="n">
-        <v>337.9057536591595</v>
+        <v>491.7184905597588</v>
       </c>
       <c r="F19" t="n">
-        <v>280.8045544961495</v>
+        <v>319.8567163343192</v>
       </c>
       <c r="G19" t="n">
-        <v>115.4479370999708</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I19" t="n">
         <v>42.75541829589048</v>
@@ -5682,43 +5682,43 @@
         <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>1093.544903181524</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N19" t="n">
-        <v>1208.040158323044</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O19" t="n">
-        <v>1688.196505394377</v>
+        <v>1723.616423865865</v>
       </c>
       <c r="P19" t="n">
-        <v>2085.522255615831</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S19" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T19" t="n">
-        <v>1891.723027423367</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U19" t="n">
-        <v>1891.723027423367</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="V19" t="n">
-        <v>1610.011560031395</v>
+        <v>1462.122697265671</v>
       </c>
       <c r="W19" t="n">
-        <v>1335.159156203908</v>
+        <v>1462.122697265671</v>
       </c>
       <c r="X19" t="n">
-        <v>1092.595259649714</v>
+        <v>1219.558800711477</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.2524913394557</v>
+        <v>993.2160324012186</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>892.9487690975901</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="C20" t="n">
-        <v>466.0480391108902</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D20" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
         <v>84.39494262103631</v>
@@ -5764,40 +5764,40 @@
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.003122344157</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U20" t="n">
-        <v>1867.003122344157</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V20" t="n">
-        <v>1509.513707470407</v>
+        <v>1509.513707470408</v>
       </c>
       <c r="W20" t="n">
-        <v>1298.2860391427</v>
+        <v>1262.144568555575</v>
       </c>
       <c r="X20" t="n">
-        <v>1298.2860391427</v>
+        <v>850.4245697233218</v>
       </c>
       <c r="Y20" t="n">
-        <v>892.9487690975901</v>
+        <v>445.0872996782122</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.5540468050084</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C21" t="n">
-        <v>803.0481433225132</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D21" t="n">
-        <v>699.2081848377982</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E21" t="n">
-        <v>594.5062511107354</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F21" t="n">
-        <v>500.8604207936396</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>407.8805855396969</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>364.8764582478581</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>385.1054302494197</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J21" t="n">
-        <v>464.1447550896838</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K21" t="n">
-        <v>611.935709457932</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L21" t="n">
-        <v>818.1862990803318</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M21" t="n">
-        <v>1062.016500035833</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1699.12012341292</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1878.560777063742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1990.400232554562</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S21" t="n">
-        <v>2076.394567347004</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T21" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U21" t="n">
-        <v>1754.145807132632</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V21" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W21" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y21" t="n">
-        <v>1049.481056225071</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.955188520548</v>
+        <v>754.7766414218788</v>
       </c>
       <c r="C22" t="n">
-        <v>917.9826253994636</v>
+        <v>582.8040783007948</v>
       </c>
       <c r="D22" t="n">
-        <v>754.6658525262343</v>
+        <v>582.8040783007948</v>
       </c>
       <c r="E22" t="n">
-        <v>588.4576466790878</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F22" t="n">
         <v>416.5958724536483</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574695</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H22" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484806</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>413.7637441131362</v>
+        <v>244.4028516473351</v>
       </c>
       <c r="L22" t="n">
-        <v>523.2582343051843</v>
+        <v>730.286235430548</v>
       </c>
       <c r="M22" t="n">
-        <v>1052.356535716829</v>
+        <v>1259.384536842193</v>
       </c>
       <c r="N22" t="n">
-        <v>1564.884713700229</v>
+        <v>1771.912714825593</v>
       </c>
       <c r="O22" t="n">
-        <v>2003.682813232011</v>
+        <v>1874.366737593723</v>
       </c>
       <c r="P22" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>2131.215415329221</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T22" t="n">
-        <v>2131.215415329221</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U22" t="n">
-        <v>1851.080076955503</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="V22" t="n">
-        <v>1569.368609563532</v>
+        <v>1688.701678825884</v>
       </c>
       <c r="W22" t="n">
-        <v>1569.368609563532</v>
+        <v>1413.849274998397</v>
       </c>
       <c r="X22" t="n">
-        <v>1326.804713009337</v>
+        <v>1171.285378444202</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.121157232613</v>
+        <v>944.9426101339445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,55 +5965,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1053.414579842148</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="C23" t="n">
-        <v>626.5138498554481</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D23" t="n">
-        <v>462.4025724638836</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E23" t="n">
-        <v>462.4025724638836</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F23" t="n">
-        <v>462.4025724638836</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1470.275255004833</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278423</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="S23" t="n">
         <v>2944.905897632023</v>
@@ -6022,19 +6022,19 @@
         <v>2944.905897632023</v>
       </c>
       <c r="U23" t="n">
-        <v>2686.711562710693</v>
+        <v>2791.446429927513</v>
       </c>
       <c r="V23" t="n">
-        <v>2686.711562710693</v>
+        <v>2433.957015053763</v>
       </c>
       <c r="W23" t="n">
-        <v>2290.32021301104</v>
+        <v>2433.957015053763</v>
       </c>
       <c r="X23" t="n">
-        <v>1878.600214178788</v>
+        <v>2433.957015053763</v>
       </c>
       <c r="Y23" t="n">
-        <v>1473.262944133678</v>
+        <v>2433.957015053763</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.7482796387122</v>
+        <v>615.7482796387123</v>
       </c>
       <c r="C24" t="n">
-        <v>498.242376156217</v>
+        <v>498.2423761562171</v>
       </c>
       <c r="D24" t="n">
         <v>394.4024176715021</v>
@@ -6056,40 +6056,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0546536273434</v>
+        <v>196.0546536273435</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>421.7811819283255</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965737</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189736</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371003</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021825</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6110,10 +6110,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X24" t="n">
-        <v>884.3681777054826</v>
+        <v>884.3681777054827</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.675289058775</v>
+        <v>744.6752890587751</v>
       </c>
     </row>
     <row r="25">
@@ -6126,7 +6126,7 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
         <v>771.9811253119058</v>
@@ -6144,40 +6144,40 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302416</v>
       </c>
       <c r="M25" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1959.002117765196</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2439.15846483653</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2836.484215057983</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="R25" t="n">
         <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381771</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U25" t="n">
         <v>2322.906966102196</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2062.852427874149</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.108650762233</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="D26" t="n">
         <v>1590.816029947233</v>
@@ -6226,28 +6226,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466718</v>
+        <v>1302.832810844573</v>
       </c>
       <c r="L26" t="n">
-        <v>988.1082102371422</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M26" t="n">
-        <v>1731.483012371471</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N26" t="n">
-        <v>2045.595402641462</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.035845641986</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P26" t="n">
-        <v>2585.727538982948</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q26" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
@@ -6259,19 +6259,19 @@
         <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2474.572426706402</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V26" t="n">
-        <v>2474.572426706402</v>
+        <v>2407.873298824596</v>
       </c>
       <c r="W26" t="n">
-        <v>2474.572426706402</v>
+        <v>2407.873298824596</v>
       </c>
       <c r="X26" t="n">
-        <v>2062.852427874149</v>
+        <v>1996.153299992343</v>
       </c>
       <c r="Y26" t="n">
-        <v>2062.852427874149</v>
+        <v>1590.816029947233</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>182.7962937677995</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K27" t="n">
-        <v>330.5872481360477</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L27" t="n">
-        <v>536.8378377584474</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
@@ -6408,28 +6408,28 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1335.388223693861</v>
+        <v>2054.724062414872</v>
       </c>
       <c r="C29" t="n">
-        <v>908.4874937071615</v>
+        <v>1627.823332428172</v>
       </c>
       <c r="D29" t="n">
-        <v>485.1948728921618</v>
+        <v>1204.530711613172</v>
       </c>
       <c r="E29" t="n">
-        <v>485.1948728921618</v>
+        <v>778.5537717610297</v>
       </c>
       <c r="F29" t="n">
-        <v>60.07069108156194</v>
+        <v>353.4295899504299</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="H29" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="I29" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>443.9121332502913</v>
+        <v>239.551332392876</v>
       </c>
       <c r="K29" t="n">
-        <v>658.7452452040872</v>
+        <v>454.3844443466718</v>
       </c>
       <c r="L29" t="n">
-        <v>931.261253727919</v>
+        <v>726.9004528705036</v>
       </c>
       <c r="M29" t="n">
-        <v>1239.634105008736</v>
+        <v>1470.275255004833</v>
       </c>
       <c r="N29" t="n">
-        <v>1553.746495278727</v>
+        <v>1784.387645274824</v>
       </c>
       <c r="O29" t="n">
-        <v>1848.186938279251</v>
+        <v>2078.828088275347</v>
       </c>
       <c r="P29" t="n">
-        <v>2093.878631620213</v>
+        <v>2324.51978161631</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078096</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632022</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.340219156767</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2563.347936517297</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W29" t="n">
-        <v>2166.956586817644</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="X29" t="n">
-        <v>1755.236587985391</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="Y29" t="n">
-        <v>1755.236587985391</v>
+        <v>2474.572426706402</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>103.0748183734007</v>
       </c>
       <c r="H30" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275354</v>
       </c>
       <c r="J30" t="n">
         <v>316.3256816434197</v>
@@ -6603,52 +6603,52 @@
         <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I31" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>397.2373026266569</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q31" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078096</v>
       </c>
       <c r="R31" t="n">
         <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2014.108650762233</v>
+        <v>912.9483609204042</v>
       </c>
       <c r="C32" t="n">
-        <v>2014.108650762233</v>
+        <v>486.0476309337043</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.816029947233</v>
+        <v>486.0476309337043</v>
       </c>
       <c r="E32" t="n">
-        <v>1164.839090095091</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="F32" t="n">
-        <v>739.714908284491</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="G32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="H32" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="I32" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>596.1507915280426</v>
+        <v>239.551332392876</v>
       </c>
       <c r="K32" t="n">
-        <v>810.9839034818384</v>
+        <v>982.9261345272049</v>
       </c>
       <c r="L32" t="n">
-        <v>1083.49991200567</v>
+        <v>1255.442143051037</v>
       </c>
       <c r="M32" t="n">
-        <v>1391.872763286487</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N32" t="n">
-        <v>1705.985153556479</v>
+        <v>2197.834060919213</v>
       </c>
       <c r="O32" t="n">
-        <v>2000.425596557002</v>
+        <v>2492.274503919737</v>
       </c>
       <c r="P32" t="n">
-        <v>2246.117289897964</v>
+        <v>2737.966197260699</v>
       </c>
       <c r="Q32" t="n">
         <v>2914.642355556173</v>
       </c>
       <c r="R32" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078096</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632022</v>
       </c>
       <c r="T32" t="n">
-        <v>3003.534554078097</v>
+        <v>2742.0807292925</v>
       </c>
       <c r="U32" t="n">
-        <v>2839.294285098872</v>
+        <v>2483.88639437117</v>
       </c>
       <c r="V32" t="n">
-        <v>2839.294285098872</v>
+        <v>2126.39697949742</v>
       </c>
       <c r="W32" t="n">
-        <v>2839.294285098872</v>
+        <v>1730.005629797767</v>
       </c>
       <c r="X32" t="n">
-        <v>2839.294285098872</v>
+        <v>1318.285630965514</v>
       </c>
       <c r="Y32" t="n">
-        <v>2433.957015053763</v>
+        <v>912.9483609204042</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>103.0748183734007</v>
       </c>
       <c r="H33" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275354</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
         <v>1394.314356246624</v>
@@ -6837,16 +6837,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851346</v>
+        <v>935.297898185135</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G34" t="n">
         <v>268.5545278431409</v>
@@ -6855,7 +6855,7 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I34" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156193</v>
       </c>
       <c r="J34" t="n">
         <v>179.9501949187404</v>
@@ -6876,10 +6876,10 @@
         <v>2405.316750564379</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2802.642500785832</v>
       </c>
       <c r="Q34" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078096</v>
       </c>
       <c r="R34" t="n">
         <v>2996.979054612795</v>
@@ -6903,7 +6903,7 @@
         <v>1523.779198328542</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>746.0446939686403</v>
+        <v>904.5955745973362</v>
       </c>
       <c r="C35" t="n">
-        <v>746.0446939686403</v>
+        <v>904.5955745973362</v>
       </c>
       <c r="D35" t="n">
-        <v>746.0446939686403</v>
+        <v>904.5955745973362</v>
       </c>
       <c r="E35" t="n">
-        <v>320.0677541164978</v>
+        <v>904.5955745973362</v>
       </c>
       <c r="F35" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G35" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
         <v>222.2360596072047</v>
@@ -6943,46 +6943,46 @@
         <v>437.0691715610005</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N35" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V35" t="n">
-        <v>1463.45850855337</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W35" t="n">
-        <v>1151.38196401375</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="X35" t="n">
-        <v>1151.38196401375</v>
+        <v>1309.932844642446</v>
       </c>
       <c r="Y35" t="n">
-        <v>746.0446939686403</v>
+        <v>904.5955745973362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E36" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F36" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I36" t="n">
-        <v>385.1054302494206</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>621.1314488097172</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K36" t="n">
-        <v>768.9224031779654</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>975.1729928003651</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.003193755867</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1471.628259390062</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1699.120123412921</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1878.560777063743</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1990.400232554563</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S36" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T36" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U36" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V36" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W36" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>761.2817982511397</v>
+        <v>438.228290200013</v>
       </c>
       <c r="C37" t="n">
-        <v>589.3092351300556</v>
+        <v>438.228290200013</v>
       </c>
       <c r="D37" t="n">
-        <v>589.3092351300556</v>
+        <v>438.228290200013</v>
       </c>
       <c r="E37" t="n">
-        <v>423.1010292829092</v>
+        <v>438.228290200013</v>
       </c>
       <c r="F37" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G37" t="n">
         <v>251.2392550574696</v>
@@ -7092,55 +7092,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K37" t="n">
-        <v>244.4028516473351</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>730.286235430548</v>
+        <v>481.8999867656335</v>
       </c>
       <c r="M37" t="n">
-        <v>1259.384536842193</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N37" t="n">
-        <v>1437.099088512676</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S37" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T37" t="n">
-        <v>1891.723027423367</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U37" t="n">
-        <v>1611.587689049648</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V37" t="n">
-        <v>1611.587689049648</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W37" t="n">
-        <v>1336.735285222161</v>
+        <v>907.1349550644659</v>
       </c>
       <c r="X37" t="n">
-        <v>1177.790535273463</v>
+        <v>664.571058510271</v>
       </c>
       <c r="Y37" t="n">
-        <v>951.4477669632054</v>
+        <v>438.228290200013</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1573.500757161562</v>
+        <v>1409.227924594868</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.500757161562</v>
+        <v>982.3271946081677</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.500757161562</v>
+        <v>559.034573793168</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.523817309419</v>
+        <v>559.034573793168</v>
       </c>
       <c r="F38" t="n">
-        <v>722.3996354988195</v>
+        <v>559.034573793168</v>
       </c>
       <c r="G38" t="n">
         <v>320.0677541164978</v>
@@ -7171,16 +7171,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072053</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610011</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M38" t="n">
         <v>1017.95803136565</v>
@@ -7207,19 +7207,19 @@
         <v>2079.14225834845</v>
       </c>
       <c r="U38" t="n">
-        <v>2079.14225834845</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V38" t="n">
-        <v>2079.14225834845</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="W38" t="n">
-        <v>2079.14225834845</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="X38" t="n">
-        <v>1667.422259516197</v>
+        <v>1409.227924594868</v>
       </c>
       <c r="Y38" t="n">
-        <v>1573.500757161562</v>
+        <v>1409.227924594868</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>688.5892794470593</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="C40" t="n">
-        <v>516.6167163259753</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="D40" t="n">
-        <v>516.6167163259753</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E40" t="n">
-        <v>350.4085104788288</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F40" t="n">
-        <v>178.5467362533892</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G40" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>285.9781189255827</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>395.4726091176307</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M40" t="n">
-        <v>924.5709105292754</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N40" t="n">
-        <v>1437.099088512676</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O40" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q40" t="n">
         <v>2137.770914794524</v>
@@ -7371,13 +7371,13 @@
         <v>1181.987358891953</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.098016469383</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="X40" t="n">
-        <v>1105.098016469383</v>
+        <v>944.8318212383001</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.7552481591249</v>
+        <v>944.8318212383001</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>42.75541829589048</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C41" t="n">
-        <v>42.75541829589048</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D41" t="n">
-        <v>42.75541829589048</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E41" t="n">
-        <v>42.75541829589048</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I41" t="n">
-        <v>84.3949426210369</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072053</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610011</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794524</v>
+        <v>2101.539305634083</v>
       </c>
       <c r="T41" t="n">
-        <v>1925.631778790233</v>
+        <v>2101.539305634083</v>
       </c>
       <c r="U41" t="n">
-        <v>1925.631778790233</v>
+        <v>2101.539305634083</v>
       </c>
       <c r="V41" t="n">
-        <v>1568.142363916482</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="W41" t="n">
-        <v>1171.751014216829</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="X41" t="n">
-        <v>760.0310153845762</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="Y41" t="n">
-        <v>462.6037825874205</v>
+        <v>1744.049890760332</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.955188520548</v>
+        <v>402.5066837189729</v>
       </c>
       <c r="C43" t="n">
-        <v>917.9826253994637</v>
+        <v>230.5341205978889</v>
       </c>
       <c r="D43" t="n">
-        <v>754.6658525262344</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E43" t="n">
-        <v>588.4576466790879</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F43" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K43" t="n">
         <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>652.3645187823272</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M43" t="n">
         <v>1181.462820193972</v>
@@ -7584,37 +7584,37 @@
         <v>1693.990998177372</v>
       </c>
       <c r="O43" t="n">
-        <v>1796.445020945502</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T43" t="n">
-        <v>1891.723027423367</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U43" t="n">
-        <v>1611.587689049648</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V43" t="n">
-        <v>1611.587689049648</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W43" t="n">
-        <v>1611.587689049648</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X43" t="n">
-        <v>1506.463925542871</v>
+        <v>819.0154207412965</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.121157232613</v>
+        <v>592.6726524310385</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1296.188421340954</v>
+        <v>1203.471517377719</v>
       </c>
       <c r="C44" t="n">
-        <v>1296.188421340954</v>
+        <v>776.5707873910196</v>
       </c>
       <c r="D44" t="n">
-        <v>1296.188421340954</v>
+        <v>776.5707873910196</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>350.5938475388772</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G44" t="n">
         <v>42.75541829589048</v>
@@ -7648,22 +7648,22 @@
         <v>84.39494262103631</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N44" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
         <v>1872.202557977127</v>
@@ -7678,22 +7678,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U44" t="n">
-        <v>2079.14225834845</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V44" t="n">
-        <v>1721.652843474699</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W44" t="n">
-        <v>1325.261493775046</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X44" t="n">
-        <v>1325.261493775046</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="Y44" t="n">
-        <v>1296.188421340954</v>
+        <v>1203.471517377719</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>62.98439029745215</v>
       </c>
       <c r="J45" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K45" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L45" t="n">
-        <v>653.0519528483964</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M45" t="n">
-        <v>896.8821538038977</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N45" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O45" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P45" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q45" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>635.4435721595273</v>
+        <v>680.7921867542084</v>
       </c>
       <c r="C46" t="n">
-        <v>463.4710090384433</v>
+        <v>680.7921867542084</v>
       </c>
       <c r="D46" t="n">
-        <v>417.447460904616</v>
+        <v>517.4754138809791</v>
       </c>
       <c r="E46" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G46" t="n">
         <v>251.2392550574696</v>
@@ -7806,22 +7806,22 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>166.4811349991142</v>
+        <v>409.1388457571121</v>
       </c>
       <c r="L46" t="n">
-        <v>652.3645187823272</v>
+        <v>895.022229540325</v>
       </c>
       <c r="M46" t="n">
-        <v>768.3405774192806</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N46" t="n">
-        <v>1280.868755402681</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O46" t="n">
-        <v>1761.025102474014</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
         <v>2088.252358880159</v>
@@ -7830,28 +7830,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S46" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T46" t="n">
-        <v>2131.215415329222</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U46" t="n">
-        <v>1851.080076955504</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V46" t="n">
-        <v>1569.368609563533</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W46" t="n">
-        <v>1294.516205736046</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X46" t="n">
-        <v>1051.952309181851</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="Y46" t="n">
-        <v>825.609540871593</v>
+        <v>680.7921867542084</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>241.3988769298244</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M13" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>207.3749271963952</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>265.093125257513</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>178.3443754026985</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9102,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>165.7705156158943</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>158.5724178990224</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>282.8953427940879</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.757680064977649</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>158.5724178990227</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>339.7414916804568</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.6222986245347</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>439.3959099530423</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>417.6226420650402</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>307.556050012652</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.7189728340893</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3324725154297</v>
       </c>
       <c r="L26" t="n">
-        <v>263.8462195622611</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>439.3959099530423</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>206.4250513711266</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>439.3959099530422</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>263.8462195622611</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>158.5724178990222</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5968634766376</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891677</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>360.2014738739056</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>533.8804951318516</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>323.1380568862306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>158.5724178990228</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307791</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N37" t="n">
-        <v>63.85787528178081</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>41.99521947297741</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M40" t="n">
         <v>417.2951947219103</v>
@@ -10995,13 +10995,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>209.3311033197065</v>
       </c>
       <c r="P43" t="n">
-        <v>209.3311033197072</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>166.3999940502798</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>245.1087987454525</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>233.0290351575962</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>120.6185511555646</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>157.9455164656137</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>269.4962767161177</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>83.90843673637869</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
@@ -23554,16 +23554,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>201.5566911778046</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.63707518911835</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>127.2820451811618</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>263.9126937226446</v>
+        <v>147.5924538505345</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
@@ -23794,10 +23794,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.6129693118053</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>23.80617094209623</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.5392124624013</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>183.3120445582266</v>
+        <v>147.5319886769717</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>224.3131917446107</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.8626204081988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>256.5895299892009</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>103.6875185446509</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24445,10 +24445,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>374.3753833460358</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>32.26999254990869</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>107.8832526883191</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>173.7421609119373</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>9.220827988121073</v>
       </c>
       <c r="U32" t="n">
-        <v>93.01452528268396</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>240.4989602849623</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>83.47165710843296</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>148.7270629142841</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.7829551394419</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>161.731411088595</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>308.30161001357</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>195.9834307908673</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>5.354275311536213</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>22.17307681277736</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>106.8309368754744</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.9258463487038</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>136.0657317169436</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>116.1128950419369</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>372.501555634908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>116.120292492008</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>64.67537777561752</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351803.2040164329</v>
+        <v>351803.2040164327</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351803.2040164326</v>
+        <v>351803.2040164328</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351803.2040164327</v>
+        <v>351803.2040164326</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351803.2040164326</v>
+        <v>351803.2040164327</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474382.4826667425</v>
+        <v>474382.4826667427</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474382.4826667425</v>
+        <v>474382.4826667423</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>351803.2040164329</v>
+        <v>351803.2040164327</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>351803.2040164326</v>
+        <v>351803.2040164328</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351803.2040164328</v>
+        <v>351803.2040164327</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351803.2040164328</v>
+        <v>351803.2040164327</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>444661.8388447903</v>
+      </c>
+      <c r="C2" t="n">
         <v>444661.8388447902</v>
-      </c>
-      <c r="C2" t="n">
-        <v>444661.8388447903</v>
       </c>
       <c r="D2" t="n">
         <v>444661.8388447902</v>
@@ -26325,19 +26325,19 @@
         <v>264418.6700701062</v>
       </c>
       <c r="F2" t="n">
-        <v>264418.670070106</v>
+        <v>264418.6700701061</v>
       </c>
       <c r="G2" t="n">
+        <v>264418.6700701061</v>
+      </c>
+      <c r="H2" t="n">
         <v>264418.6700701062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>264418.6700701061</v>
       </c>
       <c r="I2" t="n">
         <v>331859.3702227615</v>
       </c>
       <c r="J2" t="n">
-        <v>331859.3702227618</v>
+        <v>331859.3702227615</v>
       </c>
       <c r="K2" t="n">
         <v>331859.3702227614</v>
@@ -26349,10 +26349,10 @@
         <v>264418.6700701062</v>
       </c>
       <c r="N2" t="n">
-        <v>264418.6700701061</v>
+        <v>264418.6700701062</v>
       </c>
       <c r="O2" t="n">
-        <v>264418.6700701062</v>
+        <v>264418.670070106</v>
       </c>
       <c r="P2" t="n">
         <v>264418.6700701062</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160767</v>
+        <v>79247.32527160773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>321757.302549922</v>
       </c>
       <c r="E4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="F4" t="n">
-        <v>19590.20678464903</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="G4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="H4" t="n">
         <v>19590.20678464904</v>
       </c>
       <c r="I4" t="n">
-        <v>57457.91431298884</v>
+        <v>57457.91431298888</v>
       </c>
       <c r="J4" t="n">
         <v>57457.91431298883</v>
@@ -26447,16 +26447,16 @@
         <v>57457.91431298883</v>
       </c>
       <c r="L4" t="n">
-        <v>57457.91431298883</v>
+        <v>57457.91431298882</v>
       </c>
       <c r="M4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="N4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="O4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="P4" t="n">
         <v>19590.20678464904</v>
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="G5" t="n">
         <v>43269.71441650125</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361158</v>
       </c>
       <c r="J5" t="n">
         <v>56429.32173361156</v>
@@ -26502,13 +26502,13 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
         <v>43269.71441650125</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="P5" t="n">
         <v>43269.71441650125</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89276.93629486824</v>
+        <v>89255.22265337194</v>
       </c>
       <c r="C6" t="n">
-        <v>89276.9362948683</v>
+        <v>89255.22265337188</v>
       </c>
       <c r="D6" t="n">
-        <v>89276.93629486818</v>
+        <v>89255.22265337188</v>
       </c>
       <c r="E6" t="n">
-        <v>-355130.9070532977</v>
+        <v>-355734.0502714866</v>
       </c>
       <c r="F6" t="n">
-        <v>201558.7488689558</v>
+        <v>200955.6056507669</v>
       </c>
       <c r="G6" t="n">
-        <v>201558.7488689559</v>
+        <v>200955.6056507669</v>
       </c>
       <c r="H6" t="n">
-        <v>201558.7488689558</v>
+        <v>200955.605650767</v>
       </c>
       <c r="I6" t="n">
-        <v>160415.9509956792</v>
+        <v>160030.3584231441</v>
       </c>
       <c r="J6" t="n">
-        <v>217972.1341761614</v>
+        <v>217586.541603626</v>
       </c>
       <c r="K6" t="n">
-        <v>217972.134176161</v>
+        <v>217586.5416036259</v>
       </c>
       <c r="L6" t="n">
-        <v>217972.134176161</v>
+        <v>217586.5416036259</v>
       </c>
       <c r="M6" t="n">
-        <v>122311.4235973482</v>
+        <v>121708.2803791593</v>
       </c>
       <c r="N6" t="n">
-        <v>201558.7488689558</v>
+        <v>200955.605650767</v>
       </c>
       <c r="O6" t="n">
-        <v>201558.7488689559</v>
+        <v>200955.6056507669</v>
       </c>
       <c r="P6" t="n">
-        <v>201558.7488689559</v>
+        <v>200955.605650767</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>494.2934179644262</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
         <v>494.2934179644261</v>
@@ -26801,34 +26801,34 @@
         <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="G4" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195244</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
       </c>
       <c r="K4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195241</v>
       </c>
       <c r="L4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195241</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="P4" t="n">
         <v>534.442728698631</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777374</v>
+        <v>318.0018188777376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
@@ -31773,13 +31773,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O11" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q11" t="n">
         <v>214.5854405596218</v>
@@ -31791,10 +31791,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31861,10 +31861,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131456</v>
@@ -31873,7 +31873,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31940,13 +31940,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R13" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
         <v>3.80849026956197</v>
@@ -32232,7 +32232,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,7 +32262,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
         <v>8.698570601564924</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32344,7 +32344,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
         <v>0.06994718178741882</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H19" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32411,7 +32411,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
         <v>74.63830611262834</v>
@@ -32423,10 +32423,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491949</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
@@ -35415,22 +35415,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
         <v>89.79009951709452</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885255</v>
+        <v>321.2365787886769</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35503,16 +35503,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>271.5415648594465</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K13" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M13" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O13" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>292.7987106793713</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J15" t="n">
-        <v>344.9308271163655</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911599</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427153</v>
+        <v>260.9382435989269</v>
       </c>
       <c r="L16" t="n">
         <v>490.7912967507202</v>
@@ -35822,7 +35822,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>251.1942990988705</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q16" t="n">
         <v>202.9212659517818</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>238.410119757875</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,19 +36050,19 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378324</v>
+        <v>368.3191262770641</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.77642341282105</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
         <v>79.83770185885255</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>284.1619618624935</v>
       </c>
       <c r="L21" t="n">
         <v>208.3339289115149</v>
@@ -36214,7 +36214,7 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
-        <v>388.3621795382743</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P21" t="n">
         <v>181.2531855058807</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N22" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O22" t="n">
-        <v>443.2304035674569</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>85.42378348297616</v>
+        <v>216.0460821075108</v>
       </c>
       <c r="Q22" t="n">
         <v>50.0187433478434</v>
@@ -36357,7 +36357,7 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
         <v>217.0031433876725</v>
@@ -36366,10 +36366,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>750.8836385195242</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>734.9078847620011</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
         <v>297.4145888894179</v>
@@ -36378,10 +36378,10 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676758</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9308271163655</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
@@ -36457,10 +36457,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>168.7377161819327</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>678.3356159031023</v>
       </c>
       <c r="L26" t="n">
-        <v>539.1149150408791</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>750.8836385195242</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
         <v>317.2852426969609</v>
@@ -36618,7 +36618,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911598</v>
@@ -36682,7 +36682,7 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>487.6920092081086</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
         <v>255.1768339739348</v>
@@ -36697,7 +36697,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J29" t="n">
-        <v>345.6585028723068</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
@@ -36840,7 +36840,7 @@
         <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664818</v>
+        <v>750.8836385195241</v>
       </c>
       <c r="N29" t="n">
         <v>317.2852426969609</v>
@@ -36852,7 +36852,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>675.2778440992007</v>
+        <v>442.3069855172849</v>
       </c>
       <c r="R29" t="n">
         <v>243.5665220198734</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4101197578748</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>298.190731672866</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
         <v>490.7912967507202</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676017</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J32" t="n">
-        <v>499.4349253750858</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876725</v>
+        <v>750.8836385195241</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>634.6257854527124</v>
       </c>
       <c r="N32" t="n">
         <v>317.2852426969609</v>
@@ -37089,7 +37089,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
         <v>89.79009951709452</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37162,7 +37162,7 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
-        <v>388.3621795382739</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P33" t="n">
         <v>181.2531855058807</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4101197578753</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
         <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742619</v>
       </c>
       <c r="M37" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N37" t="n">
-        <v>179.5096481520032</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011809</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
         <v>217.0031433876725</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>344.9308271163657</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37645,7 +37645,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K40" t="n">
-        <v>124.5890876692058</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M40" t="n">
         <v>534.442728698631</v>
@@ -37715,13 +37715,13 @@
         <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095598</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
@@ -37800,7 +37800,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550239</v>
       </c>
       <c r="R41" t="n">
         <v>89.79009951709452</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37879,10 +37879,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,16 +37946,16 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M43" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N43" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>103.4889118870001</v>
+        <v>312.8200152067067</v>
       </c>
       <c r="P43" t="n">
-        <v>294.7548868026834</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
         <v>50.0187433478434</v>
@@ -38095,13 +38095,13 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>366.9063468105373</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
         <v>246.2931322782842</v>
@@ -38119,7 +38119,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622839</v>
+        <v>248.9938622465082</v>
       </c>
       <c r="L46" t="n">
         <v>490.7912967507202</v>
@@ -38192,7 +38192,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>330.5325822284286</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q46" t="n">
         <v>50.0187433478434</v>
